--- a/data/trans_dic/P19-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2142829837286387</v>
+        <v>0.2134625234490181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2642374477256128</v>
+        <v>0.2602318778826057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3393685794449516</v>
+        <v>0.3430057529953097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2135980301978689</v>
+        <v>0.1990879756810895</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3603497849939891</v>
+        <v>0.3609590245720342</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3344800847611358</v>
+        <v>0.3349809515077339</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3927681892294223</v>
+        <v>0.3913946848234224</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2446327997489994</v>
+        <v>0.246916137340093</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2938165260186755</v>
+        <v>0.2958189044609058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3084497625412581</v>
+        <v>0.3114719415323283</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3791520480938194</v>
+        <v>0.377817419380796</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2462816936650149</v>
+        <v>0.2454557575536269</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.288562669937925</v>
+        <v>0.2863994186336182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3469983605636358</v>
+        <v>0.352271797411411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4343289885364892</v>
+        <v>0.433582307938888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3524899057531155</v>
+        <v>0.3463539506531407</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4475916368870882</v>
+        <v>0.4483790651001896</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4248993896414445</v>
+        <v>0.4258477233589057</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4957167179012791</v>
+        <v>0.4890393881546869</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3781487246742233</v>
+        <v>0.381849547728967</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3559869713687082</v>
+        <v>0.3547260555900612</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3736190025584061</v>
+        <v>0.3757188505763788</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4496718815486974</v>
+        <v>0.4496783857383408</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3424887640534802</v>
+        <v>0.3401470019893114</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2396378312526073</v>
+        <v>0.2375993546596817</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2620970097349849</v>
+        <v>0.2649946032721004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3095181738789912</v>
+        <v>0.3108609155112171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2288728754295343</v>
+        <v>0.232629212082928</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2919284138337465</v>
+        <v>0.2928486721444039</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.299474431241548</v>
+        <v>0.2984367274355338</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3820106742599261</v>
+        <v>0.379603712844109</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2858716481804694</v>
+        <v>0.2827973990479501</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2742419440477293</v>
+        <v>0.2768992081745529</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2904448276121394</v>
+        <v>0.2869233874436368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3567596500504926</v>
+        <v>0.357478276621055</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2720937498267209</v>
+        <v>0.2689720678897061</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.309255578867514</v>
+        <v>0.3047797066709729</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3347556079753151</v>
+        <v>0.3356638067190437</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3861474455488771</v>
+        <v>0.3873131512273942</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3387751293597552</v>
+        <v>0.3472917876074215</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3715132848495461</v>
+        <v>0.3713679135197176</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3796786817859585</v>
+        <v>0.3783948826588977</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4623787123250782</v>
+        <v>0.4642152660731199</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3750211985750739</v>
+        <v>0.374371089163786</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3249317809325452</v>
+        <v>0.3232297950472295</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3436251711480192</v>
+        <v>0.3408221939834132</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4146886597101014</v>
+        <v>0.4157217274503653</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3448082729683123</v>
+        <v>0.3389273994594991</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.228310260974062</v>
+        <v>0.2267472574233891</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2252610989516805</v>
+        <v>0.2228206678711529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2528366578277183</v>
+        <v>0.2501420581661955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2291820518215974</v>
+        <v>0.2298539564341944</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2967334968826194</v>
+        <v>0.2927870715817685</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3080197277019273</v>
+        <v>0.3057324788999217</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3248173403189371</v>
+        <v>0.3283120274524537</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3452064431903437</v>
+        <v>0.347062933144427</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2725895060049622</v>
+        <v>0.2731658937757921</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2752626921719973</v>
+        <v>0.2733590457577531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.298997047187652</v>
+        <v>0.2959206819065888</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.298116848604267</v>
+        <v>0.2964812638103806</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2951202722790554</v>
+        <v>0.2942178523328093</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2949420587830027</v>
+        <v>0.2914675611161279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3262563565740343</v>
+        <v>0.3217915917149594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3057401066586994</v>
+        <v>0.30523943178844</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3708075592168364</v>
+        <v>0.3666263472111261</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3818076304893139</v>
+        <v>0.3799799738226851</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3954009833103834</v>
+        <v>0.3995564198800589</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4137954474404718</v>
+        <v>0.4164847204886091</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3260334484484912</v>
+        <v>0.3236760810621883</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.32710540022779</v>
+        <v>0.3262936148046222</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3490563101136764</v>
+        <v>0.3493125423191019</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3513361965826877</v>
+        <v>0.3458518180165308</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3320549084406245</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3234340242673073</v>
+        <v>0.3234340242673074</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2329577099502569</v>
+        <v>0.2347237825875484</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2251847813325651</v>
+        <v>0.2203797603564482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2691716104331811</v>
+        <v>0.2647157472016135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2564312438925124</v>
+        <v>0.2583504041566997</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3326288515009682</v>
+        <v>0.3318292203729966</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2880315687291902</v>
+        <v>0.2857705715982052</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3224743577171151</v>
+        <v>0.3237113808244867</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3262396516003394</v>
+        <v>0.3241297382096672</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2948675031770381</v>
+        <v>0.2956887470376053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2668013307774933</v>
+        <v>0.2670527564097582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3044115049624369</v>
+        <v>0.302993911903878</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2998749026982436</v>
+        <v>0.3017239372802191</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3163397418644301</v>
+        <v>0.3114756817530674</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3037523828829496</v>
+        <v>0.2996836700211105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.338332733339079</v>
+        <v>0.3409461072262386</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.329432090753477</v>
+        <v>0.333254128392134</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4175087396405905</v>
+        <v>0.4134472559862321</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3663673110043961</v>
+        <v>0.3638077850603702</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3999187015184409</v>
+        <v>0.3960220372520896</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3825196522987153</v>
+        <v>0.3829984272487954</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3514657003134695</v>
+        <v>0.3556402503916901</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3244822290188241</v>
+        <v>0.3198711983532202</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3578235927715197</v>
+        <v>0.3602607813879133</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.344639443558946</v>
+        <v>0.3469659255670338</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.205115649473831</v>
+        <v>0.205877591342968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1692507694480361</v>
+        <v>0.1696914339985693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2356429122518296</v>
+        <v>0.2344472158185445</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2228269019281813</v>
+        <v>0.2271420543810622</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2565814228055786</v>
+        <v>0.252166263075135</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2317110056269319</v>
+        <v>0.2373826816354871</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2722003329020932</v>
+        <v>0.269002968849595</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3123951734721066</v>
+        <v>0.3128306263930507</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2414627730433041</v>
+        <v>0.2414528119376636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2144290968968494</v>
+        <v>0.214892736520564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.26339625085291</v>
+        <v>0.2661165442458356</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.276703841306028</v>
+        <v>0.2805544422329842</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2907937622072137</v>
+        <v>0.2966355667475155</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2521793818570655</v>
+        <v>0.2549289441659563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3225695069684983</v>
+        <v>0.3211003760094582</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2930053059200554</v>
+        <v>0.294812667224081</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3438566144704845</v>
+        <v>0.3467402500864837</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3204520903473366</v>
+        <v>0.3226812239433501</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3611423724279325</v>
+        <v>0.3549496689587455</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3712601730307452</v>
+        <v>0.3714290861217694</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3049529474320363</v>
+        <v>0.3054868414840753</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.27338366738519</v>
+        <v>0.2748364078744667</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3264744094822073</v>
+        <v>0.3256613795212923</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3234200107758493</v>
+        <v>0.323943092633471</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.2530316369097906</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2635562295263141</v>
+        <v>0.2635562295263142</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1742949371626238</v>
+        <v>0.1681372765012827</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1376971132741344</v>
+        <v>0.1394295828909742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1541844460637111</v>
+        <v>0.15713481488982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2358553962756086</v>
+        <v>0.2251564376259865</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1770298403339508</v>
+        <v>0.1820420407493192</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2211880165430987</v>
+        <v>0.2177358951224222</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2549465171190329</v>
+        <v>0.2556055581797211</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2318532418330889</v>
+        <v>0.2318127732124189</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1841723694903539</v>
+        <v>0.183493814730386</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1910784604123119</v>
+        <v>0.1886130742637047</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2186365262431108</v>
+        <v>0.2186296361928765</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2408374519150124</v>
+        <v>0.2379950358522158</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2627437515469222</v>
+        <v>0.262568111730578</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2349853608956355</v>
+        <v>0.2335543694531252</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2452522240279057</v>
+        <v>0.2430211794324285</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3071589687581133</v>
+        <v>0.3034981213484</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2639503156094842</v>
+        <v>0.264244537003185</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3151112775540414</v>
+        <v>0.3141574085242609</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3553079478873061</v>
+        <v>0.353163760292172</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2918575260153167</v>
+        <v>0.2934848742535681</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2493310938259177</v>
+        <v>0.2485066993802676</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.259212407535133</v>
+        <v>0.2625438510407093</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2862085229782985</v>
+        <v>0.2848098912355509</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2876842489042677</v>
+        <v>0.2874481165160899</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.1583809160574969</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1445009393032481</v>
+        <v>0.1445009393032482</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09194491780899126</v>
+        <v>0.09645646137259653</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05601825934044891</v>
+        <v>0.06079442063201872</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1032804985945655</v>
+        <v>0.1018233535279982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1217342612458628</v>
+        <v>0.1206499448800214</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1016870599291289</v>
+        <v>0.1024670458295247</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09794389299409367</v>
+        <v>0.1004854881694596</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.131521693404167</v>
+        <v>0.1320815399824458</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1164373286743743</v>
+        <v>0.1163139354342323</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.109772609384129</v>
+        <v>0.1092406668476314</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09041459076849347</v>
+        <v>0.08989754914315841</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1302031986165123</v>
+        <v>0.1282265326184943</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1256150459184851</v>
+        <v>0.1247499273370398</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1806627211729224</v>
+        <v>0.1843690671271867</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1349886299792329</v>
+        <v>0.1317775646149136</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1785041093283449</v>
+        <v>0.1765202654165005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1902923190938733</v>
+        <v>0.1898506070287556</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1795329572944088</v>
+        <v>0.1836690325599145</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1667568856589061</v>
+        <v>0.1710428475640993</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2196811891231288</v>
+        <v>0.2172332336905355</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1658129313405878</v>
+        <v>0.1646859174283008</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1697131086840749</v>
+        <v>0.1707360507809159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.142022621483537</v>
+        <v>0.1403687450229853</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1924499508640649</v>
+        <v>0.191331946188648</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1663865056942212</v>
+        <v>0.1654219672333488</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.231837521124972</v>
+        <v>0.2308013152687392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2731954458661593</v>
+        <v>0.273504566048816</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2472975019960179</v>
+        <v>0.2456303766533904</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2868571853908241</v>
+        <v>0.2869717096285596</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3277673772082697</v>
+        <v>0.3286494590928967</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.297629236745919</v>
+        <v>0.298430897341013</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2656045505033621</v>
+        <v>0.2643578956759631</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3088520135854333</v>
+        <v>0.3077066819442409</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2776181553250661</v>
+        <v>0.2778499746953452</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2618486494557353</v>
+        <v>0.2616827032574002</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3052331684306099</v>
+        <v>0.3069882479398203</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2812477382837679</v>
+        <v>0.2811743732713519</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3182121181710253</v>
+        <v>0.3174122099047941</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3612048436963857</v>
+        <v>0.3610344806913924</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3261460301444419</v>
+        <v>0.3253839335468214</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2883878306476649</v>
+        <v>0.2868853344656943</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3302777088968096</v>
+        <v>0.3301913615362504</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2995594604931634</v>
+        <v>0.2998505155802768</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105870</v>
+        <v>105464</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>120002</v>
+        <v>118183</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>142353</v>
+        <v>143878</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>85985</v>
+        <v>80144</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>168460</v>
+        <v>168744</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>143903</v>
+        <v>144119</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>155440</v>
+        <v>154896</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>88138</v>
+        <v>88961</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>282520</v>
+        <v>284446</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>272786</v>
+        <v>275458</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>309092</v>
+        <v>308004</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>187875</v>
+        <v>187244</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>142568</v>
+        <v>141500</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>157588</v>
+        <v>159983</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>182185</v>
+        <v>181872</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>141897</v>
+        <v>139427</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>209244</v>
+        <v>209612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>182804</v>
+        <v>183212</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>196182</v>
+        <v>193540</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>136242</v>
+        <v>137576</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>342300</v>
+        <v>341088</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>330420</v>
+        <v>332277</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>366581</v>
+        <v>366586</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>261265</v>
+        <v>259479</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>176251</v>
+        <v>174752</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>179782</v>
+        <v>181770</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>182769</v>
+        <v>183562</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>108731</v>
+        <v>110515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>182599</v>
+        <v>183175</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>182756</v>
+        <v>182123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>215280</v>
+        <v>213923</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>141816</v>
+        <v>140291</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>373238</v>
+        <v>376855</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>376473</v>
+        <v>371908</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>411715</v>
+        <v>412544</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>264245</v>
+        <v>261213</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>227454</v>
+        <v>224162</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>229621</v>
+        <v>230244</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>228019</v>
+        <v>228707</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>160942</v>
+        <v>164988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>232379</v>
+        <v>232288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>231701</v>
+        <v>230917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>260571</v>
+        <v>261606</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>186042</v>
+        <v>185720</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>442226</v>
+        <v>439910</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>445405</v>
+        <v>441771</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>478567</v>
+        <v>479760</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>334862</v>
+        <v>329151</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>145814</v>
+        <v>144816</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>153597</v>
+        <v>151933</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>169172</v>
+        <v>167369</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>141498</v>
+        <v>141913</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>204670</v>
+        <v>201948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>218956</v>
+        <v>217330</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>214830</v>
+        <v>217141</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>213485</v>
+        <v>214633</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>362111</v>
+        <v>362877</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>383362</v>
+        <v>380710</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>397810</v>
+        <v>393717</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>368422</v>
+        <v>366401</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>188484</v>
+        <v>187908</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>201110</v>
+        <v>198741</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>218297</v>
+        <v>215310</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>188766</v>
+        <v>188457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>255762</v>
+        <v>252878</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>271408</v>
+        <v>270109</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>261513</v>
+        <v>264261</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>255902</v>
+        <v>257565</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>433107</v>
+        <v>429975</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>455564</v>
+        <v>454433</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>464413</v>
+        <v>464754</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>434193</v>
+        <v>427415</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>120727</v>
+        <v>121642</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>138402</v>
+        <v>135449</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>173898</v>
+        <v>171019</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>179085</v>
+        <v>180425</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>171517</v>
+        <v>171105</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>177207</v>
+        <v>175816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>209311</v>
+        <v>210114</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>238396</v>
+        <v>236855</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>304857</v>
+        <v>305706</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>328126</v>
+        <v>328435</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>394251</v>
+        <v>392415</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>428556</v>
+        <v>431198</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>163938</v>
+        <v>161418</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>186691</v>
+        <v>184191</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>218579</v>
+        <v>220268</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>230067</v>
+        <v>232736</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>215285</v>
+        <v>213191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>225402</v>
+        <v>223827</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>259578</v>
+        <v>257049</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>279522</v>
+        <v>279872</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>363372</v>
+        <v>367688</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>399065</v>
+        <v>393394</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>463426</v>
+        <v>466583</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>492529</v>
+        <v>495854</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>79320</v>
+        <v>79615</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>72450</v>
+        <v>72639</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>112618</v>
+        <v>112047</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>135145</v>
+        <v>137762</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>103418</v>
+        <v>101638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>103760</v>
+        <v>106300</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>135242</v>
+        <v>133654</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>187518</v>
+        <v>187780</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>190700</v>
+        <v>190692</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>187811</v>
+        <v>188217</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>256750</v>
+        <v>259402</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>333916</v>
+        <v>338562</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>112453</v>
+        <v>114712</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>107949</v>
+        <v>109126</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>154162</v>
+        <v>153460</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>177709</v>
+        <v>178805</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>138595</v>
+        <v>139757</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>143498</v>
+        <v>144497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>179433</v>
+        <v>176356</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>222853</v>
+        <v>222954</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>240843</v>
+        <v>241265</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>239447</v>
+        <v>240720</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>318236</v>
+        <v>317444</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>390291</v>
+        <v>390922</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>50996</v>
+        <v>49194</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42657</v>
+        <v>43193</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>51548</v>
+        <v>52535</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>94569</v>
+        <v>90279</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>60710</v>
+        <v>62428</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>78300</v>
+        <v>77078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>96309</v>
+        <v>96558</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>101530</v>
+        <v>101512</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>117045</v>
+        <v>116613</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>126834</v>
+        <v>125198</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>155689</v>
+        <v>155684</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>202031</v>
+        <v>199646</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>76874</v>
+        <v>76823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>72795</v>
+        <v>72352</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>81995</v>
+        <v>81249</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>123158</v>
+        <v>121691</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>90518</v>
+        <v>90618</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>111548</v>
+        <v>111210</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>134222</v>
+        <v>133412</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>127806</v>
+        <v>128519</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>158454</v>
+        <v>157930</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>172061</v>
+        <v>174272</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>203807</v>
+        <v>202811</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>241329</v>
+        <v>241131</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19298</v>
+        <v>20245</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13996</v>
+        <v>15190</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26543</v>
+        <v>26168</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>37249</v>
+        <v>36917</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>33954</v>
+        <v>34215</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>38098</v>
+        <v>39087</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>52631</v>
+        <v>52855</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>53021</v>
+        <v>52965</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>59693</v>
+        <v>59404</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>57760</v>
+        <v>57429</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>85565</v>
+        <v>84266</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>95637</v>
+        <v>94978</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37918</v>
+        <v>38696</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>33727</v>
+        <v>32925</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>45875</v>
+        <v>45365</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>58226</v>
+        <v>58091</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>59947</v>
+        <v>61329</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>64865</v>
+        <v>66532</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>87910</v>
+        <v>86930</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>75505</v>
+        <v>74992</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>92288</v>
+        <v>92845</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>90728</v>
+        <v>89672</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>126472</v>
+        <v>125737</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>126678</v>
+        <v>125944</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>793873</v>
+        <v>790325</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>927321</v>
+        <v>928370</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>867236</v>
+        <v>861390</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1020450</v>
+        <v>1020857</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1161785</v>
+        <v>1164912</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1100951</v>
+        <v>1103916</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1854347</v>
+        <v>1845644</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2143091</v>
+        <v>2135143</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2000495</v>
+        <v>2002166</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>896639</v>
+        <v>896071</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1036068</v>
+        <v>1042026</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>986295</v>
+        <v>986038</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1131990</v>
+        <v>1129145</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1280306</v>
+        <v>1279702</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1206436</v>
+        <v>1203617</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2013411</v>
+        <v>2002922</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2291761</v>
+        <v>2291162</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2158602</v>
+        <v>2160700</v>
       </c>
     </row>
     <row r="36">
